--- a/UConnBleedBlue/wwwroot/Data/Costs.xlsx
+++ b/UConnBleedBlue/wwwroot/Data/Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\UConnBleedBlue\UConnBleedBlue\wwwroot\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15961CDF-0CBA-4B25-A845-F7D772B4E35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714D44C3-184C-4559-AA45-89F184D6B024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1800" windowWidth="21600" windowHeight="13680" xr2:uid="{CE911E70-E777-478D-A573-EDC5A294280B}"/>
+    <workbookView xWindow="32655" yWindow="-1185" windowWidth="28800" windowHeight="15345" xr2:uid="{CE911E70-E777-478D-A573-EDC5A294280B}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Cost</t>
   </si>
   <si>
-    <t>Rent 2 Pickup Trucks</t>
-  </si>
-  <si>
-    <t>Hamburger, Hotdogs, Sausage, Cheese, Buns</t>
-  </si>
-  <si>
-    <t>Water, Soda, Paper Goods, Condiments</t>
-  </si>
-  <si>
-    <t>Beer</t>
-  </si>
-  <si>
     <t>Descriptionts</t>
   </si>
   <si>
-    <t>Ice - 15 30lb Bags</t>
+    <t>Coffee - 10 cups - $18.00-200 people - Qty:20</t>
+  </si>
+  <si>
+    <t>Rent  Pickup Truck - Qty: 1</t>
+  </si>
+  <si>
+    <t>Ice - 30lb Bags - Qty: 15</t>
+  </si>
+  <si>
+    <t>Sausage Patties Qty: 150</t>
+  </si>
+  <si>
+    <t>Cheese   - 5 lbs</t>
+  </si>
+  <si>
+    <t>Apple Juice - 8oz bottles Qty: 48</t>
+  </si>
+  <si>
+    <t>Orange Juice 11oz bottles - Qty 60</t>
+  </si>
+  <si>
+    <t>Bacon - 10lbs</t>
+  </si>
+  <si>
+    <t>Eggs 15 doz.</t>
+  </si>
+  <si>
+    <t>Rolls - Qty: 200</t>
+  </si>
+  <si>
+    <t>Paper Goods</t>
+  </si>
+  <si>
+    <t>Brookstone Griddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Rental - Qty: 8 </t>
+  </si>
+  <si>
+    <t>Pancake Batter</t>
   </si>
 </sst>
 </file>
@@ -103,15 +130,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,9 +158,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +198,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -276,7 +304,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,7 +446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,68 +454,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE57203-7D3B-4332-A800-641DAE6FF24B}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3">
-        <f>SUM(B2:B15)</f>
-        <v>1574</v>
+      <c r="D1" s="2">
+        <f>SUM(B2:B14)</f>
+        <v>1749.99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>200</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <f>100*1</f>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>120</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="4">
+        <f>10*8</f>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>900</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <f>8*15</f>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>204</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <f>3*150</f>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
         <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <f>5*5</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <f>120*1</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4">
+        <f>18*20</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <f>15*2</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <f>13*2</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <f>16.33*3</f>
+        <v>48.989999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
